--- a/src/utils/base.xlsx
+++ b/src/utils/base.xlsx
@@ -1,49 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Escritorio\apex-timesheet\src\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Apex Timesheet" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Apex Timesheet" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t>sergio</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Hours Worked*</t>
+  </si>
+  <si>
     <t>Notes (e.g. project, tasks, etc.)</t>
   </si>
   <si>
+    <t>Sunday**</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>High level description of tasks/ project name</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -56,21 +55,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>High level description of tasks/ project name</t>
-  </si>
-  <si>
-    <t>Weekday</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Hours Worked*</t>
-  </si>
-  <si>
-    <t>Sunday**</t>
-  </si>
-  <si>
     <t>Saturday**</t>
   </si>
   <si>
@@ -80,19 +64,19 @@
     <t>*</t>
   </si>
   <si>
+    <t>Please provide written approval if daily hours exceed 8</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
+    <t>Please provide written approval for hours worked during the weekend or bank holidays</t>
+  </si>
+  <si>
     <t>***</t>
   </si>
   <si>
     <t>Please provide written approval if the Total exceeds 40 hours</t>
-  </si>
-  <si>
-    <t>Please provide written approval for hours worked during the weekend or bank holidays</t>
-  </si>
-  <si>
-    <t>Please provide written approval if daily hours exceed 8</t>
   </si>
   <si>
     <r>
@@ -101,19 +85,19 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
         <color theme="7" tint="-0.249977111117893"/>
+        <family val="1"/>
+        <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t>amber</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
         <color theme="1"/>
+        <family val="2"/>
+        <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> warnings</t>
     </r>
@@ -123,42 +107,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="2"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <family val="2"/>
+      <sz val="10"/>
       <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.5"/>
       <color theme="0"/>
+      <family val="2"/>
+      <sz val="10"/>
       <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -379,59 +350,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -467,14 +435,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF44546A"/>
-      <color rgb="FF37A9AC"/>
-      <color rgb="FF37B3AC"/>
-      <color rgb="FF37B398"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,48 +463,31 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Apex Systems">
+        <xdr:cNvPr id="1" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C130228B-6030-40A8-899F-C68A0DF31240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="3714750"/>
-          <a:ext cx="2533650" cy="592982"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -815,163 +758,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I17"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+    <row r="1" ht="12.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="E8" s="9">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
+    </row>
+    <row r="9" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
         <f>SUM(E4:E10)</f>
         <v>40</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4 E10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -981,294 +930,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABDA488DE0037349BB4B54CC4BAE6770" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb5bc2e11b505156ff0c4ce7480abce2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="28b9a8a3-e45d-4217-b635-ee4289f68ace" xmlns:ns4="55b1c80e-cc13-495c-8231-718bc6fdbcf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f44661881bff188eee150b594c7f6c4" ns3:_="" ns4:_="">
-    <xsd:import namespace="28b9a8a3-e45d-4217-b635-ee4289f68ace"/>
-    <xsd:import namespace="55b1c80e-cc13-495c-8231-718bc6fdbcf0"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="28b9a8a3-e45d-4217-b635-ee4289f68ace" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="55b1c80e-cc13-495c-8231-718bc6fdbcf0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C182E1A-891E-4FF0-BE1C-75149C85B488}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="28b9a8a3-e45d-4217-b635-ee4289f68ace"/>
-    <ds:schemaRef ds:uri="55b1c80e-cc13-495c-8231-718bc6fdbcf0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCEA783-7D0D-4D66-A538-DF668FBCD028}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F62FE0-49F0-4A13-B736-96B1BEA1038B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="55b1c80e-cc13-495c-8231-718bc6fdbcf0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="28b9a8a3-e45d-4217-b635-ee4289f68ace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>